--- a/sp2-excel-easypoi/src/main/resources/demoData.xlsx
+++ b/sp2-excel-easypoi/src/main/resources/demoData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src-repo\springboot2.x-integration\sp2-excel-easypoi\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src-repo\springboot2.x-integration\sp2-excel-easypoi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C3CD4-6940-469E-A7D3-E1D0B7FF8834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="员工表" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>员工信息</t>
   </si>
@@ -55,100 +54,158 @@
     <t>张三</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>1998-12-1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>王花花</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>1994-12-1</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李阳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyang22873@qq.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-9-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尔王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>amy.crisl.hello@gmail.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-5-23</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-11-27</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三丰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王中王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>川普</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanfen.zhang@sohu.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1879-1-7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3344888@qq.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-2-17</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump.dj@gmail.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1946-6-14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanghuahua@163.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>zhangsan@163.com</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>1998-12-1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>王花花</t>
-  </si>
-  <si>
-    <t>wanghuahua@163.com</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>1994-12-1</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李阳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyang22873@qq.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003-9-1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>李尔王</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>amy.crisl.hello@gmail.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003-5-23</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1986-11-27</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,9 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,12 +859,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,25 +875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -870,97 +927,157 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -969,12 +1086,17 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{5F981D37-B6F4-49F7-93D7-36ED6345CF88}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{583CF030-5A5A-4F2D-BD68-B2A3F23C03ED}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{0C9BD680-F147-42F3-8617-E13D856DA9C7}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>